--- a/data/trans_dic/P17_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala</t>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>22,02%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>21,34%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>17,65%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>10,68%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>15,6%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>17,11%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>19,64%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,77</t>
+          <t>10,24; 15,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,54</t>
+          <t>6,82; 12,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,61</t>
+          <t>6,3; 10,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,44</t>
+          <t>8,45; 14,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,28</t>
+          <t>9,41; 15,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,18; 24,95</t>
+          <t>10,26; 15,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,74</t>
+          <t>14,24; 20,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 18,49</t>
+          <t>19,23; 24,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 26,36</t>
+          <t>9,87; 15,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,52; 24,36</t>
+          <t>13,86; 18,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,84</t>
+          <t>16,69; 23,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 12,73</t>
+          <t>13,32; 19,31</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,21</t>
+          <t>18,54; 24,76</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,41</t>
+          <t>19,24; 25,0</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 19,36</t>
+          <t>15,58; 19,59</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 12,8</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 14,34</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>13,35; 17,72</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 16,97</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>15,27; 19,18</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>17,71; 21,7</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18,52%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>22,33%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,2%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>17,02%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>11,59%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>14,01%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>15,66%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>16,7%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,38</t>
+          <t>8,94; 14,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 15,23</t>
+          <t>4,77; 12,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 14,09</t>
+          <t>8,39; 14,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 17,11</t>
+          <t>9,38; 16,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,88</t>
+          <t>7,99; 16,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,18; 25,72</t>
+          <t>9,36; 18,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,48</t>
+          <t>14,17; 24,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 20,36</t>
+          <t>19,06; 25,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 22,43</t>
+          <t>11,31; 18,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 27,83</t>
+          <t>14,6; 20,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 19,16</t>
+          <t>16,47; 23,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 15,08</t>
+          <t>21,12; 30,85</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 16,34</t>
+          <t>15,79; 27,58</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 18,17</t>
+          <t>13,31; 24,75</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13,56; 20,68</t>
+          <t>14,83; 19,18</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,52; 13,61</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 16,2</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 18,69</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>15,56; 21,76</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 20,49</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 22,25</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>29,67%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>16,92%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,11%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>24,05%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>12,4%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>18,54%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 32,13</t>
+          <t>11,78; 31,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,54</t>
+          <t>4,84; 16,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 20,65</t>
+          <t>8,34; 20,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 23,05</t>
+          <t>10,37; 23,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>9,29; 38,47</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>22,97; 36,42</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 24,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 24,98</t>
+          <t>23,2; 37,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 27,11</t>
+          <t>11,12; 24,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>13,13; 25,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 27,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 22,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>19,16; 30,36</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>8,52; 16,9</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>12,27; 20,64</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 31,16</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 17,88</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 20,4</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 23,56</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 26,43</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>12,81%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>23,02%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,6%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,64%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>21,19%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>18,16%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>13,42%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>15,97%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>17,01%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,36</t>
+          <t>11,14; 15,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,22</t>
+          <t>6,6; 10,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,98</t>
+          <t>8,29; 12,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 14,34</t>
+          <t>10,2; 14,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,07</t>
+          <t>10,29; 15,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,33</t>
+          <t>10,81; 15,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 15,71</t>
+          <t>15,03; 20,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,6</t>
+          <t>21,01; 25,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 22,88</t>
+          <t>11,89; 15,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,64; 23,97</t>
+          <t>15,17; 18,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,59</t>
+          <t>17,55; 22,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,13</t>
+          <t>16,94; 22,23</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,79</t>
+          <t>18,77; 24,25</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,11</t>
+          <t>18,95; 23,65</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 18,76</t>
+          <t>16,75; 19,86</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 12,52</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 14,85</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 17,58</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 18,24</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 18,88</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 21,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>210692</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>149634</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>135150</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>176308</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>206857</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29082</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>392723</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>219947</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>296599</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>352161</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>293255</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>50617</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>52132</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>603415</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>369581</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>431749</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>528469</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>500111</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>79700</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>91248</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>167520; 259174</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>110475; 204399</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>103666; 176952</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>138568; 229867</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>154191; 261481</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23461; 35415</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32489; 46239</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>343070; 445361</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>178249; 272347</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>252332; 344932</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>302776; 421407</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>240225; 348299</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>43975; 58736</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45499; 59124</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>532798; 669995</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>308923; 438573</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>376452; 496980</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>461172; 612072</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>429298; 583968</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>71130; 89371</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>82282; 100828</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>160329</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>97639</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148197</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>169626</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>151988</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9471</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13570</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>313405</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>200235</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>239596</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>269527</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>352667</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13538</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12342</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>473735</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>297874</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>387793</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>439152</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>504656</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>23009</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>25912</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>123309; 198261</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>65434; 168126</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>115275; 195608</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>129569; 225498</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>110643; 225079</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6764; 13348</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10384; 17585</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>267459; 362761</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>157346; 251766</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>200351; 286726</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>226628; 330206</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>294077; 429623</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10351; 18085</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8909; 16564</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>412782; 533695</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>235251; 375945</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>333442; 444912</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>378013; 515528</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>432101; 604590</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>18281; 28249</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>21123; 31187</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77741</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37339</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>57147</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67938</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76607</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>122206</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72328</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>73649</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>87514</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>60315</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>199947</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>130796</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>155452</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>136922</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49387; 131532</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20473; 69347</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35069; 84548</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43667; 96945</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39265; 162667</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95574; 154305</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45787; 101045</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52970; 101659</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64693; 114081</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39360; 92280</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>158909; 259040</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>76117; 149260</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>99625; 168106</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>121604; 195695</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>88995; 220595</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>448761</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>284612</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>340494</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>413872</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>435453</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38553</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52687</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>828335</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>492511</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>609843</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>709202</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>706237</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>64155</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>64473</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1277096</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>777123</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>950338</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1123074</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1141689</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>102709</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>117160</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>382613; 523882</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>225473; 363585</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>285154; 415574</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>351005; 489686</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>354649; 540208</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>32541; 45189</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45321; 60555</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>756097; 904312</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>429254; 569179</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>545510; 676689</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>631963; 798244</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>611210; 802087</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>56809; 73423</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>57504; 71777</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1177826; 1396770</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>681448; 878993</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>860738; 1044465</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1030485; 1237949</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1019794; 1286506</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>93343; 114001</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>106838; 129313</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
